--- a/Datos crudos_Procesamiento.xlsx
+++ b/Datos crudos_Procesamiento.xlsx
@@ -1,46 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chele\Desktop\Cuantificacion_qubit\Cuantificacion_qubit\IASI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27376806-5261-409C-887F-317D8C51656A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
     <sheet name="Procesamiento" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>estos son los std
-	-Vicky Posner</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,8 +363,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -475,18 +447,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -495,7 +457,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -514,7 +476,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -522,28 +484,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -551,14 +492,13 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11438202012827868"/>
-          <c:y val="0.1414884918231375"/>
-          <c:w val="0.8256174540682415"/>
-          <c:h val="0.78194444444444444"/>
+          <c:y val="0.14148849182313755"/>
+          <c:w val="0.82561745406824161"/>
+          <c:h val="0.78194444444444455"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -599,6 +539,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -612,7 +553,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -695,30 +636,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8B4C-473B-8A3B-0B0F563D9445}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="456685000"/>
-        <c:axId val="456688280"/>
+        <c:dLbls/>
+        <c:axId val="119266304"/>
+        <c:axId val="127017728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456685000"/>
+        <c:axId val="119266304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -736,7 +668,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -756,7 +687,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -771,16 +702,15 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456688280"/>
+        <c:crossAx val="127017728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456688280"/>
+        <c:axId val="127017728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -798,7 +728,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -818,7 +747,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -833,7 +762,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456685000"/>
+        <c:crossAx val="119266304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -847,14 +776,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -883,566 +811,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1465,7 +837,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C96EEF7-930E-4918-988A-4DC37D38A916}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C96EEF7-930E-4918-988A-4DC37D38A916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1693,9 +1065,9 @@
       <selection sqref="A1:F281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1735,7 +1107,7 @@
         <v>266.8984375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +1127,7 @@
         <v>-40.30078125</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +1147,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1795,7 +1167,7 @@
         <v>1381.69921875</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1187,7 @@
         <v>999.30078125</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1207,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1855,7 +1227,7 @@
         <v>3476.30078125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +1247,7 @@
         <v>1951.6015625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1267,7 @@
         <v>-2675.69921875</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1915,7 +1287,7 @@
         <v>-2111.69921875</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1935,7 +1307,7 @@
         <v>-2741.3984375</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1955,7 +1327,7 @@
         <v>-2613.6015625</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1975,7 +1347,7 @@
         <v>-2522.19921875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1995,7 +1367,7 @@
         <v>-2456.6015625</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2015,7 +1387,7 @@
         <v>-2287.8984375</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2035,7 +1407,7 @@
         <v>-1826.8984375</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2055,7 +1427,7 @@
         <v>953.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2075,7 +1447,7 @@
         <v>1279.8984375</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2095,7 +1467,7 @@
         <v>4927.6015625</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2115,7 +1487,7 @@
         <v>1073.6015625</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -2135,7 +1507,7 @@
         <v>-2429.19921875</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -2155,7 +1527,7 @@
         <v>-2632.8984375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -2175,7 +1547,7 @@
         <v>-2430</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -2195,7 +1567,7 @@
         <v>-2523.19921875</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -2215,7 +1587,7 @@
         <v>-2378.6015625</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -2235,7 +1607,7 @@
         <v>-2626</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -2255,7 +1627,7 @@
         <v>-2339.1015625</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -2275,7 +1647,7 @@
         <v>-2356.6015625</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -2295,7 +1667,7 @@
         <v>1190.80078125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -2315,7 +1687,7 @@
         <v>1974.30078125</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2335,7 +1707,7 @@
         <v>4212.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -2355,7 +1727,7 @@
         <v>1736.30078125</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -2375,7 +1747,7 @@
         <v>-2577.6015625</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -2395,7 +1767,7 @@
         <v>-2547.6015625</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -2415,7 +1787,7 @@
         <v>-2402.6015625</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -2435,7 +1807,7 @@
         <v>-2419</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -2455,7 +1827,7 @@
         <v>-2516.19921875</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -2475,7 +1847,7 @@
         <v>-2495.69921875</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -2495,7 +1867,7 @@
         <v>-2343.80078125</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -2515,7 +1887,7 @@
         <v>-2321.3984375</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -2535,7 +1907,7 @@
         <v>2074.19921875</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -2555,7 +1927,7 @@
         <v>2645.6015625</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -2575,7 +1947,7 @@
         <v>3780.69921875</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -2595,7 +1967,7 @@
         <v>2074.1015625</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -2615,7 +1987,7 @@
         <v>-2616</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -2635,7 +2007,7 @@
         <v>-2532.8984375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -2655,7 +2027,7 @@
         <v>-2586</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2675,7 +2047,7 @@
         <v>-2564.1015625</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -2695,7 +2067,7 @@
         <v>-2627.1015625</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -2715,7 +2087,7 @@
         <v>-2435</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
@@ -2735,7 +2107,7 @@
         <v>-2222.30078125</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -2755,7 +2127,7 @@
         <v>-2329.1015625</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -2775,7 +2147,7 @@
         <v>4009.80078125</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -2795,7 +2167,7 @@
         <v>4319.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -2815,7 +2187,7 @@
         <v>1187.8984375</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2835,7 +2207,7 @@
         <v>1610.3984375</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -2855,7 +2227,7 @@
         <v>-2672.19921875</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -2875,7 +2247,7 @@
         <v>-2575.6015625</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -2895,7 +2267,7 @@
         <v>-2830.3984375</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2915,7 +2287,7 @@
         <v>-969.6015625</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -2935,7 +2307,7 @@
         <v>-2631.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -2955,7 +2327,7 @@
         <v>-2527.19921875</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -2975,7 +2347,7 @@
         <v>-2481.30078125</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -2995,7 +2367,7 @@
         <v>-2448.1015625</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -3015,7 +2387,7 @@
         <v>7716.19921875</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -3035,7 +2407,7 @@
         <v>6790.1015625</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -3055,7 +2427,7 @@
         <v>1759.6015625</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -3075,7 +2447,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -3095,7 +2467,7 @@
         <v>-2675.80078125</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
@@ -3115,7 +2487,7 @@
         <v>-2746.8984375</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
@@ -3135,7 +2507,7 @@
         <v>-3118.19921875</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
@@ -3155,7 +2527,7 @@
         <v>-2521.69921875</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
@@ -3175,7 +2547,7 @@
         <v>-2643.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
@@ -3195,7 +2567,7 @@
         <v>-2715.30078125</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>80</v>
       </c>
@@ -3215,7 +2587,7 @@
         <v>-2697</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
@@ -3235,7 +2607,7 @@
         <v>-2203.5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>82</v>
       </c>
@@ -3255,7 +2627,7 @@
         <v>14195.8984375</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
@@ -3275,7 +2647,7 @@
         <v>12175.19921875</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
@@ -3295,7 +2667,7 @@
         <v>2740.8984375</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>85</v>
       </c>
@@ -3315,7 +2687,7 @@
         <v>4764.6015625</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>
@@ -3335,7 +2707,7 @@
         <v>-2999.6015625</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>87</v>
       </c>
@@ -3355,7 +2727,7 @@
         <v>-2746.3984375</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>88</v>
       </c>
@@ -3375,7 +2747,7 @@
         <v>-3021.19921875</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>89</v>
       </c>
@@ -3395,7 +2767,7 @@
         <v>-2724.3984375</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>90</v>
       </c>
@@ -3415,7 +2787,7 @@
         <v>-739.69921875</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>91</v>
       </c>
@@ -3435,7 +2807,7 @@
         <v>-2833.1015625</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>92</v>
       </c>
@@ -3455,7 +2827,7 @@
         <v>-2562.1015625</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>93</v>
       </c>
@@ -3475,7 +2847,7 @@
         <v>-2271.69921875</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +2867,7 @@
         <v>240.8984375</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -3515,7 +2887,7 @@
         <v>-90.30078125</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
@@ -3535,7 +2907,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -3555,7 +2927,7 @@
         <v>1348.69921875</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -3575,7 +2947,7 @@
         <v>-2848.30078125</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -3595,7 +2967,7 @@
         <v>-2607.1015625</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -3615,7 +2987,7 @@
         <v>-2585.8984375</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
@@ -3635,7 +3007,7 @@
         <v>-2749.3984375</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -3655,7 +3027,7 @@
         <v>-1730.80078125</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
@@ -3675,7 +3047,7 @@
         <v>-2762.80078125</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
@@ -3695,7 +3067,7 @@
         <v>-2776.8984375</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
         <v>101</v>
       </c>
@@ -3715,7 +3087,7 @@
         <v>-2523.1015625</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>10</v>
       </c>
@@ -3735,7 +3107,7 @@
         <v>993.30078125</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>11</v>
       </c>
@@ -3755,7 +3127,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
         <v>12</v>
       </c>
@@ -3775,7 +3147,7 @@
         <v>3356.30078125</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
@@ -3795,7 +3167,7 @@
         <v>1928.6015625</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
         <v>14</v>
       </c>
@@ -3815,7 +3187,7 @@
         <v>-2676.69921875</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
@@ -3835,7 +3207,7 @@
         <v>-2110.69921875</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>16</v>
       </c>
@@ -3855,7 +3227,7 @@
         <v>-2738.3984375</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>17</v>
       </c>
@@ -3875,7 +3247,7 @@
         <v>-2628.6015625</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>18</v>
       </c>
@@ -3895,7 +3267,7 @@
         <v>-2510.19921875</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
         <v>19</v>
       </c>
@@ -3915,7 +3287,7 @@
         <v>-2465.6015625</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
         <v>20</v>
       </c>
@@ -3935,7 +3307,7 @@
         <v>-2294.8984375</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
         <v>21</v>
       </c>
@@ -3955,7 +3327,7 @@
         <v>-1828.8984375</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
         <v>22</v>
       </c>
@@ -3975,7 +3347,7 @@
         <v>911.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>23</v>
       </c>
@@ -3995,7 +3367,7 @@
         <v>1260.8984375</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>24</v>
       </c>
@@ -4015,7 +3387,7 @@
         <v>4948.6015625</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
         <v>25</v>
       </c>
@@ -4035,7 +3407,7 @@
         <v>1059.6015625</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
         <v>26</v>
       </c>
@@ -4055,7 +3427,7 @@
         <v>-2419.19921875</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>27</v>
       </c>
@@ -4075,7 +3447,7 @@
         <v>-2644.8984375</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>28</v>
       </c>
@@ -4095,7 +3467,7 @@
         <v>-2428</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
         <v>29</v>
       </c>
@@ -4115,7 +3487,7 @@
         <v>-2525.19921875</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>30</v>
       </c>
@@ -4135,7 +3507,7 @@
         <v>-2363.6015625</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
         <v>31</v>
       </c>
@@ -4155,7 +3527,7 @@
         <v>-2637</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
         <v>32</v>
       </c>
@@ -4175,7 +3547,7 @@
         <v>-2337.1015625</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>33</v>
       </c>
@@ -4195,7 +3567,7 @@
         <v>-2370.6015625</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>34</v>
       </c>
@@ -4215,7 +3587,7 @@
         <v>1167.80078125</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>35</v>
       </c>
@@ -4235,7 +3607,7 @@
         <v>1911.30078125</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>36</v>
       </c>
@@ -4255,7 +3627,7 @@
         <v>4185.5</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
         <v>37</v>
       </c>
@@ -4275,7 +3647,7 @@
         <v>1703.30078125</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>38</v>
       </c>
@@ -4295,7 +3667,7 @@
         <v>-2597.6015625</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
         <v>39</v>
       </c>
@@ -4315,7 +3687,7 @@
         <v>-2541.6015625</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>40</v>
       </c>
@@ -4335,7 +3707,7 @@
         <v>-2401.6015625</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
         <v>41</v>
       </c>
@@ -4355,7 +3727,7 @@
         <v>-2408</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
         <v>42</v>
       </c>
@@ -4375,7 +3747,7 @@
         <v>-2523.19921875</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>43</v>
       </c>
@@ -4395,7 +3767,7 @@
         <v>-2496.69921875</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
         <v>44</v>
       </c>
@@ -4415,7 +3787,7 @@
         <v>-2339.80078125</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>45</v>
       </c>
@@ -4435,7 +3807,7 @@
         <v>-2308.3984375</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
         <v>46</v>
       </c>
@@ -4455,7 +3827,7 @@
         <v>2054.19921875</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
         <v>47</v>
       </c>
@@ -4475,7 +3847,7 @@
         <v>2607.6015625</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
         <v>48</v>
       </c>
@@ -4495,7 +3867,7 @@
         <v>3732.69921875</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
         <v>49</v>
       </c>
@@ -4515,7 +3887,7 @@
         <v>2053.1015625</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>50</v>
       </c>
@@ -4535,7 +3907,7 @@
         <v>-2610</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>51</v>
       </c>
@@ -4555,7 +3927,7 @@
         <v>-2516.8984375</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
         <v>52</v>
       </c>
@@ -4575,7 +3947,7 @@
         <v>-2587</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
         <v>53</v>
       </c>
@@ -4595,7 +3967,7 @@
         <v>-2579.1015625</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>54</v>
       </c>
@@ -4615,7 +3987,7 @@
         <v>-2645.1015625</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
         <v>55</v>
       </c>
@@ -4635,7 +4007,7 @@
         <v>-2436</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
         <v>56</v>
       </c>
@@ -4655,7 +4027,7 @@
         <v>-2233.30078125</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
         <v>57</v>
       </c>
@@ -4675,7 +4047,7 @@
         <v>-2334.1015625</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
         <v>58</v>
       </c>
@@ -4695,7 +4067,7 @@
         <v>3944.80078125</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
         <v>59</v>
       </c>
@@ -4715,7 +4087,7 @@
         <v>4232.5</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
         <v>60</v>
       </c>
@@ -4735,7 +4107,7 @@
         <v>1112.8984375</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
         <v>61</v>
       </c>
@@ -4755,7 +4127,7 @@
         <v>1601.3984375</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
         <v>62</v>
       </c>
@@ -4775,7 +4147,7 @@
         <v>-2682.19921875</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
         <v>63</v>
       </c>
@@ -4795,7 +4167,7 @@
         <v>-2578.6015625</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
         <v>64</v>
       </c>
@@ -4815,7 +4187,7 @@
         <v>-2833.3984375</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
         <v>65</v>
       </c>
@@ -4835,7 +4207,7 @@
         <v>-978.6015625</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
         <v>66</v>
       </c>
@@ -4855,7 +4227,7 @@
         <v>-2633.5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
         <v>67</v>
       </c>
@@ -4875,7 +4247,7 @@
         <v>-2522.19921875</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
         <v>68</v>
       </c>
@@ -4895,7 +4267,7 @@
         <v>-2480.30078125</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
         <v>69</v>
       </c>
@@ -4915,7 +4287,7 @@
         <v>-2455.1015625</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
         <v>70</v>
       </c>
@@ -4935,7 +4307,7 @@
         <v>7694.19921875</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
         <v>71</v>
       </c>
@@ -4955,7 +4327,7 @@
         <v>6878.1015625</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
         <v>72</v>
       </c>
@@ -4975,7 +4347,7 @@
         <v>1729.6015625</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
         <v>73</v>
       </c>
@@ -4995,7 +4367,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
         <v>74</v>
       </c>
@@ -5015,7 +4387,7 @@
         <v>-2672.80078125</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
         <v>75</v>
       </c>
@@ -5035,7 +4407,7 @@
         <v>-2754.8984375</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
         <v>76</v>
       </c>
@@ -5055,7 +4427,7 @@
         <v>-3130.19921875</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
         <v>77</v>
       </c>
@@ -5075,7 +4447,7 @@
         <v>-2522.69921875</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
         <v>78</v>
       </c>
@@ -5095,7 +4467,7 @@
         <v>-2669.5</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
         <v>79</v>
       </c>
@@ -5115,7 +4487,7 @@
         <v>-2717.30078125</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
         <v>80</v>
       </c>
@@ -5135,7 +4507,7 @@
         <v>-2693</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
         <v>81</v>
       </c>
@@ -5155,7 +4527,7 @@
         <v>-2215.5</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
         <v>82</v>
       </c>
@@ -5175,7 +4547,7 @@
         <v>14500.8984375</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
         <v>83</v>
       </c>
@@ -5195,7 +4567,7 @@
         <v>12377.19921875</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
         <v>84</v>
       </c>
@@ -5215,7 +4587,7 @@
         <v>2695.8984375</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
         <v>85</v>
       </c>
@@ -5235,7 +4607,7 @@
         <v>4729.6015625</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
         <v>86</v>
       </c>
@@ -5255,7 +4627,7 @@
         <v>-2997.6015625</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
         <v>87</v>
       </c>
@@ -5275,7 +4647,7 @@
         <v>-2746.3984375</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
         <v>88</v>
       </c>
@@ -5295,7 +4667,7 @@
         <v>-3014.19921875</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
         <v>89</v>
       </c>
@@ -5315,7 +4687,7 @@
         <v>-2727.3984375</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
         <v>90</v>
       </c>
@@ -5335,7 +4707,7 @@
         <v>-742.69921875</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
         <v>91</v>
       </c>
@@ -5355,7 +4727,7 @@
         <v>-2841.1015625</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
         <v>92</v>
       </c>
@@ -5375,7 +4747,7 @@
         <v>-2569.1015625</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
         <v>93</v>
       </c>
@@ -5395,7 +4767,7 @@
         <v>-2266.69921875</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
         <v>6</v>
       </c>
@@ -5415,7 +4787,7 @@
         <v>227.8984375</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
         <v>7</v>
       </c>
@@ -5435,7 +4807,7 @@
         <v>-101.30078125</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
         <v>8</v>
       </c>
@@ -5455,7 +4827,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
         <v>9</v>
       </c>
@@ -5475,7 +4847,7 @@
         <v>1326.69921875</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
         <v>94</v>
       </c>
@@ -5495,7 +4867,7 @@
         <v>-2847.30078125</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
         <v>95</v>
       </c>
@@ -5515,7 +4887,7 @@
         <v>-2609.1015625</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
         <v>96</v>
       </c>
@@ -5535,7 +4907,7 @@
         <v>-2604.8984375</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
         <v>97</v>
       </c>
@@ -5555,7 +4927,7 @@
         <v>-2758.3984375</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
         <v>98</v>
       </c>
@@ -5575,7 +4947,7 @@
         <v>-1726.80078125</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>99</v>
       </c>
@@ -5595,7 +4967,7 @@
         <v>-2775.80078125</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
         <v>100</v>
       </c>
@@ -5615,7 +4987,7 @@
         <v>-2780.8984375</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>101</v>
       </c>
@@ -5635,7 +5007,7 @@
         <v>-2536.1015625</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
         <v>10</v>
       </c>
@@ -5655,7 +5027,7 @@
         <v>951.30078125</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6">
       <c r="A199" s="2" t="s">
         <v>11</v>
       </c>
@@ -5675,7 +5047,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
         <v>12</v>
       </c>
@@ -5695,7 +5067,7 @@
         <v>3274.30078125</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
         <v>13</v>
       </c>
@@ -5715,7 +5087,7 @@
         <v>1914.6015625</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
         <v>14</v>
       </c>
@@ -5735,7 +5107,7 @@
         <v>-2686.69921875</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
         <v>15</v>
       </c>
@@ -5755,7 +5127,7 @@
         <v>-2134.69921875</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
         <v>16</v>
       </c>
@@ -5775,7 +5147,7 @@
         <v>-2749.3984375</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
         <v>17</v>
       </c>
@@ -5795,7 +5167,7 @@
         <v>-2650.6015625</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
         <v>18</v>
       </c>
@@ -5815,7 +5187,7 @@
         <v>-2504.19921875</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>19</v>
       </c>
@@ -5835,7 +5207,7 @@
         <v>-2449.6015625</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
         <v>20</v>
       </c>
@@ -5855,7 +5227,7 @@
         <v>-2291.8984375</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
         <v>21</v>
       </c>
@@ -5875,7 +5247,7 @@
         <v>-1831.8984375</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
         <v>22</v>
       </c>
@@ -5895,7 +5267,7 @@
         <v>911.5</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
         <v>23</v>
       </c>
@@ -5915,7 +5287,7 @@
         <v>1225.8984375</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>24</v>
       </c>
@@ -5935,7 +5307,7 @@
         <v>4952.6015625</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
         <v>25</v>
       </c>
@@ -5955,7 +5327,7 @@
         <v>1029.6015625</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
         <v>26</v>
       </c>
@@ -5975,7 +5347,7 @@
         <v>-2425.19921875</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
         <v>27</v>
       </c>
@@ -5995,7 +5367,7 @@
         <v>-2645.8984375</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
         <v>28</v>
       </c>
@@ -6015,7 +5387,7 @@
         <v>-2412</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
         <v>29</v>
       </c>
@@ -6035,7 +5407,7 @@
         <v>-2534.19921875</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
         <v>30</v>
       </c>
@@ -6055,7 +5427,7 @@
         <v>-2385.6015625</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
         <v>31</v>
       </c>
@@ -6075,7 +5447,7 @@
         <v>-2635</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
         <v>32</v>
       </c>
@@ -6095,7 +5467,7 @@
         <v>-2334.1015625</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
         <v>33</v>
       </c>
@@ -6115,7 +5487,7 @@
         <v>-2354.6015625</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
         <v>34</v>
       </c>
@@ -6135,7 +5507,7 @@
         <v>1170.80078125</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
         <v>35</v>
       </c>
@@ -6155,7 +5527,7 @@
         <v>1878.30078125</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
         <v>36</v>
       </c>
@@ -6175,7 +5547,7 @@
         <v>4185.5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6">
       <c r="A225" s="2" t="s">
         <v>37</v>
       </c>
@@ -6195,7 +5567,7 @@
         <v>1673.30078125</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6">
       <c r="A226" s="2" t="s">
         <v>38</v>
       </c>
@@ -6215,7 +5587,7 @@
         <v>-2595.6015625</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6">
       <c r="A227" s="2" t="s">
         <v>39</v>
       </c>
@@ -6235,7 +5607,7 @@
         <v>-2552.6015625</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6">
       <c r="A228" s="2" t="s">
         <v>40</v>
       </c>
@@ -6255,7 +5627,7 @@
         <v>-2422.6015625</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6">
       <c r="A229" s="2" t="s">
         <v>41</v>
       </c>
@@ -6275,7 +5647,7 @@
         <v>-2417</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6">
       <c r="A230" s="2" t="s">
         <v>42</v>
       </c>
@@ -6295,7 +5667,7 @@
         <v>-2520.19921875</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6">
       <c r="A231" s="2" t="s">
         <v>43</v>
       </c>
@@ -6315,7 +5687,7 @@
         <v>-2501.69921875</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
         <v>44</v>
       </c>
@@ -6335,7 +5707,7 @@
         <v>-2351.80078125</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6">
       <c r="A233" s="2" t="s">
         <v>45</v>
       </c>
@@ -6355,7 +5727,7 @@
         <v>-2328.3984375</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6">
       <c r="A234" s="2" t="s">
         <v>46</v>
       </c>
@@ -6375,7 +5747,7 @@
         <v>2032.19921875</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6">
       <c r="A235" s="2" t="s">
         <v>47</v>
       </c>
@@ -6395,7 +5767,7 @@
         <v>2568.6015625</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6">
       <c r="A236" s="2" t="s">
         <v>48</v>
       </c>
@@ -6415,7 +5787,7 @@
         <v>3717.69921875</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6">
       <c r="A237" s="2" t="s">
         <v>49</v>
       </c>
@@ -6435,7 +5807,7 @@
         <v>2100.1015625</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6">
       <c r="A238" s="2" t="s">
         <v>50</v>
       </c>
@@ -6455,7 +5827,7 @@
         <v>-2621</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6">
       <c r="A239" s="2" t="s">
         <v>51</v>
       </c>
@@ -6475,7 +5847,7 @@
         <v>-2519.8984375</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6">
       <c r="A240" s="2" t="s">
         <v>52</v>
       </c>
@@ -6495,7 +5867,7 @@
         <v>-2581</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6">
       <c r="A241" s="2" t="s">
         <v>53</v>
       </c>
@@ -6515,7 +5887,7 @@
         <v>-2582.1015625</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
         <v>54</v>
       </c>
@@ -6535,7 +5907,7 @@
         <v>-2631.1015625</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6">
       <c r="A243" s="2" t="s">
         <v>55</v>
       </c>
@@ -6555,7 +5927,7 @@
         <v>-2425</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6">
       <c r="A244" s="2" t="s">
         <v>56</v>
       </c>
@@ -6575,7 +5947,7 @@
         <v>-2227.30078125</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6">
       <c r="A245" s="2" t="s">
         <v>57</v>
       </c>
@@ -6595,7 +5967,7 @@
         <v>-2342.1015625</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6">
       <c r="A246" s="2" t="s">
         <v>58</v>
       </c>
@@ -6615,7 +5987,7 @@
         <v>3872.80078125</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6">
       <c r="A247" s="2" t="s">
         <v>59</v>
       </c>
@@ -6635,7 +6007,7 @@
         <v>4257.5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6">
       <c r="A248" s="2" t="s">
         <v>60</v>
       </c>
@@ -6655,7 +6027,7 @@
         <v>1058.8984375</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6">
       <c r="A249" s="2" t="s">
         <v>61</v>
       </c>
@@ -6675,7 +6047,7 @@
         <v>1554.3984375</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6">
       <c r="A250" s="2" t="s">
         <v>62</v>
       </c>
@@ -6695,7 +6067,7 @@
         <v>-2690.19921875</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6">
       <c r="A251" s="2" t="s">
         <v>63</v>
       </c>
@@ -6715,7 +6087,7 @@
         <v>-2590.6015625</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
         <v>64</v>
       </c>
@@ -6735,7 +6107,7 @@
         <v>-2835.3984375</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6">
       <c r="A253" s="2" t="s">
         <v>65</v>
       </c>
@@ -6755,7 +6127,7 @@
         <v>-979.6015625</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6">
       <c r="A254" s="2" t="s">
         <v>66</v>
       </c>
@@ -6775,7 +6147,7 @@
         <v>-2638.5</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6">
       <c r="A255" s="2" t="s">
         <v>67</v>
       </c>
@@ -6795,7 +6167,7 @@
         <v>-2528.19921875</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6">
       <c r="A256" s="2" t="s">
         <v>68</v>
       </c>
@@ -6815,7 +6187,7 @@
         <v>-2490.30078125</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="A257" s="2" t="s">
         <v>69</v>
       </c>
@@ -6835,7 +6207,7 @@
         <v>-2472.1015625</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="A258" s="2" t="s">
         <v>70</v>
       </c>
@@ -6855,7 +6227,7 @@
         <v>7652.19921875</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="A259" s="2" t="s">
         <v>71</v>
       </c>
@@ -6875,7 +6247,7 @@
         <v>6920.1015625</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
         <v>72</v>
       </c>
@@ -6895,7 +6267,7 @@
         <v>1689.6015625</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="A261" s="2" t="s">
         <v>73</v>
       </c>
@@ -6915,7 +6287,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
         <v>74</v>
       </c>
@@ -6935,7 +6307,7 @@
         <v>-2673.80078125</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="A263" s="2" t="s">
         <v>75</v>
       </c>
@@ -6955,7 +6327,7 @@
         <v>-2763.8984375</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="A264" s="2" t="s">
         <v>76</v>
       </c>
@@ -6975,7 +6347,7 @@
         <v>-3126.19921875</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="A265" s="2" t="s">
         <v>77</v>
       </c>
@@ -6995,7 +6367,7 @@
         <v>-2527.69921875</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="A266" s="2" t="s">
         <v>78</v>
       </c>
@@ -7015,7 +6387,7 @@
         <v>-2655.5</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="A267" s="2" t="s">
         <v>79</v>
       </c>
@@ -7035,7 +6407,7 @@
         <v>-2711.30078125</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="A268" s="2" t="s">
         <v>80</v>
       </c>
@@ -7055,7 +6427,7 @@
         <v>-2698</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="A269" s="2" t="s">
         <v>81</v>
       </c>
@@ -7075,7 +6447,7 @@
         <v>-2217.5</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="A270" s="2" t="s">
         <v>82</v>
       </c>
@@ -7095,7 +6467,7 @@
         <v>14671.8984375</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="A271" s="2" t="s">
         <v>83</v>
       </c>
@@ -7115,7 +6487,7 @@
         <v>12632.19921875</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
         <v>84</v>
       </c>
@@ -7135,7 +6507,7 @@
         <v>2675.8984375</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6">
       <c r="A273" s="2" t="s">
         <v>85</v>
       </c>
@@ -7155,7 +6527,7 @@
         <v>4700.6015625</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
         <v>86</v>
       </c>
@@ -7175,7 +6547,7 @@
         <v>-2993.6015625</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
         <v>87</v>
       </c>
@@ -7195,7 +6567,7 @@
         <v>-2750.3984375</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
         <v>88</v>
       </c>
@@ -7215,7 +6587,7 @@
         <v>-3030.19921875</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
         <v>89</v>
       </c>
@@ -7235,7 +6607,7 @@
         <v>-2739.3984375</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
         <v>90</v>
       </c>
@@ -7255,7 +6627,7 @@
         <v>-778.69921875</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
         <v>91</v>
       </c>
@@ -7275,7 +6647,7 @@
         <v>-2846.1015625</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
         <v>92</v>
       </c>
@@ -7295,7 +6667,7 @@
         <v>-2549.1015625</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
         <v>93</v>
       </c>
@@ -7321,19 +6693,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7371,7 +6743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -7385,19 +6757,19 @@
         <v>266.8984375</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F33" si="0">C2-D2</f>
+        <f>C2-D2</f>
         <v>-1797.3984375</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G33" si="1">C34-D34</f>
+        <f>C34-D34</f>
         <v>-1822.3984375</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:H33" si="2">C66-D66</f>
+        <f t="shared" ref="H2:H33" si="0">C66-D66</f>
         <v>-1861.3984375</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J33" si="3">AVERAGE(F2:H2)</f>
+        <f t="shared" ref="J2:J33" si="1">AVERAGE(F2:H2)</f>
         <v>-1827.0651041666667</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -7419,7 +6791,7 @@
         <v>6082.569010416667</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -7433,19 +6805,19 @@
         <v>-40.30078125</v>
       </c>
       <c r="F3" s="5">
+        <f t="shared" ref="F2:F33" si="2">C3-D3</f>
+        <v>-2157.59765625</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G2:G33" si="3">C35-D35</f>
+        <v>-2211.59765625</v>
+      </c>
+      <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>-2157.59765625</v>
-      </c>
-      <c r="G3" s="5">
+        <v>-2247.59765625</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" si="1"/>
-        <v>-2211.59765625</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" si="2"/>
-        <v>-2247.59765625</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" si="3"/>
         <v>-2205.59765625</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -7467,7 +6839,7 @@
         <v>6044.09765625</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7481,19 +6853,19 @@
         <v>2944</v>
       </c>
       <c r="F4" s="5">
+        <f t="shared" si="2"/>
+        <v>19058.5</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="3"/>
+        <v>18926.5</v>
+      </c>
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>19058.5</v>
-      </c>
-      <c r="G4" s="5">
+        <v>18875.5</v>
+      </c>
+      <c r="J4" s="5">
         <f t="shared" si="1"/>
-        <v>18926.5</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="2"/>
-        <v>18875.5</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="3"/>
         <v>18953.5</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -7515,7 +6887,7 @@
         <v>3111.4635416666665</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -7529,19 +6901,19 @@
         <v>1381.69921875</v>
       </c>
       <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>6142.90234375</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
+        <v>6079.90234375</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>6142.90234375</v>
-      </c>
-      <c r="G5" s="5">
+        <v>6024.90234375</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>6079.90234375</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="2"/>
-        <v>6024.90234375</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="3"/>
         <v>6082.569010416667</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -7563,7 +6935,7 @@
         <v>7396.764322916667</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -7577,19 +6949,19 @@
         <v>999.30078125</v>
       </c>
       <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>-891.1015625</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>-954.1015625</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>-891.1015625</v>
-      </c>
-      <c r="G6" s="5">
+        <v>-975.1015625</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="1"/>
-        <v>-954.1015625</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="2"/>
-        <v>-975.1015625</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="3"/>
         <v>-940.1015625</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -7611,7 +6983,7 @@
         <v>9988.6666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -7625,19 +6997,19 @@
         <v>927</v>
       </c>
       <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>-977.1015625</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>-986.1015625</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>-977.1015625</v>
-      </c>
-      <c r="G7" s="5">
+        <v>-1009.1015625</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="1"/>
-        <v>-986.1015625</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="2"/>
-        <v>-1009.1015625</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="3"/>
         <v>-990.76822916666663</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -7659,7 +7031,7 @@
         <v>6595.369791666667</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -7673,19 +7045,19 @@
         <v>3476.30078125</v>
       </c>
       <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>19950.69921875</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>19490.69921875</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>19950.69921875</v>
-      </c>
-      <c r="G8" s="5">
+        <v>19274.69921875</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="1"/>
-        <v>19490.69921875</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="2"/>
-        <v>19274.69921875</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" si="3"/>
         <v>19572.032552083332</v>
       </c>
       <c r="L8" s="4" t="s">
@@ -7707,7 +7079,7 @@
         <v>6361.467447916667</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -7721,19 +7093,19 @@
         <v>1951.6015625</v>
       </c>
       <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>6088.09765625</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>6039.09765625</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>6088.09765625</v>
-      </c>
-      <c r="G9" s="5">
+        <v>6005.09765625</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>6039.09765625</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="2"/>
-        <v>6005.09765625</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" si="3"/>
         <v>6044.09765625</v>
       </c>
       <c r="L9" s="4" t="s">
@@ -7755,7 +7127,7 @@
         <v>32996.930989583336</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -7769,19 +7141,19 @@
         <v>953.5</v>
       </c>
       <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>1283.80078125</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>1217.80078125</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>1283.80078125</v>
-      </c>
-      <c r="G10" s="5">
+        <v>1205.80078125</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="1"/>
-        <v>1217.80078125</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="2"/>
-        <v>1205.80078125</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="3"/>
         <v>1235.80078125</v>
       </c>
       <c r="N10">
@@ -7789,7 +7161,7 @@
         <v>-1827.0651041666667</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -7803,19 +7175,19 @@
         <v>1279.8984375</v>
       </c>
       <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>1707.6015625</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>1652.6015625</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>1707.6015625</v>
-      </c>
-      <c r="G11" s="5">
+        <v>1626.6015625</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="1"/>
-        <v>1652.6015625</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="2"/>
-        <v>1626.6015625</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="3"/>
         <v>1662.2682291666667</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -7841,7 +7213,7 @@
         <v>7909.6341145833339</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -7855,19 +7227,19 @@
         <v>4927.6015625</v>
       </c>
       <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>28980.8984375</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>29173.8984375</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>28980.8984375</v>
-      </c>
-      <c r="G12" s="5">
+        <v>29411.8984375</v>
+      </c>
+      <c r="J12" s="5">
         <f t="shared" si="1"/>
-        <v>29173.8984375</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="2"/>
-        <v>29411.8984375</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="3"/>
         <v>29188.8984375</v>
       </c>
       <c r="L12" s="4" t="s">
@@ -7893,7 +7265,7 @@
         <v>7871.162760416667</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -7907,19 +7279,19 @@
         <v>1073.6015625</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>3156.796875</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>3089.796875</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>3156.796875</v>
-      </c>
-      <c r="G13" s="5">
+        <v>3087.796875</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="1"/>
-        <v>3089.796875</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="2"/>
-        <v>3087.796875</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="3"/>
         <v>3111.4635416666665</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -7945,7 +7317,7 @@
         <v>4938.528645833333</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -7959,19 +7331,19 @@
         <v>1190.80078125</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>3824.59765625</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>3801.59765625</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>3824.59765625</v>
-      </c>
-      <c r="G14" s="5">
+        <v>3907.59765625</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="1"/>
-        <v>3801.59765625</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="2"/>
-        <v>3907.59765625</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="3"/>
         <v>3844.59765625</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -7997,7 +7369,7 @@
         <v>9223.8294270833339</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -8011,19 +7383,19 @@
         <v>1974.30078125</v>
       </c>
       <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>4780.30078125</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>4707.30078125</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>4780.30078125</v>
-      </c>
-      <c r="G15" s="5">
+        <v>4680.30078125</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="1"/>
-        <v>4707.30078125</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="2"/>
-        <v>4680.30078125</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="3"/>
         <v>4722.634114583333</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -8049,7 +7421,7 @@
         <v>11815.731770833332</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -8063,19 +7435,19 @@
         <v>4212.5</v>
       </c>
       <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>21800.6015625</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>21701.6015625</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>21800.6015625</v>
-      </c>
-      <c r="G16" s="5">
+        <v>21757.6015625</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="1"/>
-        <v>21701.6015625</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="2"/>
-        <v>21757.6015625</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="3"/>
         <v>21753.268229166668</v>
       </c>
       <c r="L16" s="4" t="s">
@@ -8101,7 +7473,7 @@
         <v>8422.4348958333339</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -8115,19 +7487,19 @@
         <v>1736.30078125</v>
       </c>
       <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>7457.09765625</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>7376.09765625</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="0"/>
-        <v>7457.09765625</v>
-      </c>
-      <c r="G17" s="5">
+        <v>7357.09765625</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="1"/>
-        <v>7376.09765625</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="2"/>
-        <v>7357.09765625</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="3"/>
         <v>7396.764322916667</v>
       </c>
       <c r="L17" s="4" t="s">
@@ -8153,7 +7525,7 @@
         <v>8188.5325520833339</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -8167,19 +7539,19 @@
         <v>2074.19921875</v>
       </c>
       <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>9618</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>9552</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>9618</v>
-      </c>
-      <c r="G18" s="5">
+        <v>9516</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="1"/>
-        <v>9552</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="2"/>
-        <v>9516</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="3"/>
         <v>9562</v>
       </c>
       <c r="L18" s="4" t="s">
@@ -8205,7 +7577,7 @@
         <v>34823.99609375</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -8219,23 +7591,23 @@
         <v>2645.6015625</v>
       </c>
       <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>11392.3984375</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="3"/>
+        <v>11238.3984375</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>11392.3984375</v>
-      </c>
-      <c r="G19" s="5">
+        <v>11242.3984375</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="1"/>
-        <v>11238.3984375</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="2"/>
-        <v>11242.3984375</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="3"/>
         <v>11291.065104166666</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -8249,24 +7621,24 @@
         <v>3780.69921875</v>
       </c>
       <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>19458.6015625</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="3"/>
+        <v>19434.6015625</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="0"/>
-        <v>19458.6015625</v>
-      </c>
-      <c r="G20" s="5">
+        <v>19405.6015625</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="1"/>
-        <v>19434.6015625</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="2"/>
-        <v>19405.6015625</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="3"/>
         <v>19432.934895833332</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -8280,24 +7652,24 @@
         <v>2074.1015625</v>
       </c>
       <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>10037</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>9936</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>10037</v>
-      </c>
-      <c r="G21" s="5">
+        <v>9993</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="1"/>
-        <v>9936</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="2"/>
-        <v>9993</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="3"/>
         <v>9988.6666666666661</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -8311,24 +7683,24 @@
         <v>4009.80078125</v>
       </c>
       <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>22169</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>21996</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="0"/>
-        <v>22169</v>
-      </c>
-      <c r="G22" s="5">
+        <v>21885</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="1"/>
-        <v>21996</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="2"/>
-        <v>21885</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="3"/>
         <v>22016.666666666668</v>
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -8342,24 +7714,24 @@
         <v>4319.5</v>
       </c>
       <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>23692.69921875</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>23477.69921875</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="0"/>
-        <v>23692.69921875</v>
-      </c>
-      <c r="G23" s="5">
+        <v>23614.69921875</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="1"/>
-        <v>23477.69921875</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="2"/>
-        <v>23614.69921875</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="3"/>
         <v>23595.032552083332</v>
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -8373,24 +7745,24 @@
         <v>1187.8984375</v>
       </c>
       <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>3951.6015625</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="3"/>
+        <v>3814.6015625</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>3951.6015625</v>
-      </c>
-      <c r="G24" s="5">
+        <v>3731.6015625</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="1"/>
-        <v>3814.6015625</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="2"/>
-        <v>3731.6015625</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="3"/>
         <v>3832.6015625</v>
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -8404,24 +7776,24 @@
         <v>1610.3984375</v>
       </c>
       <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>6669.703125</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>6607.703125</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>6669.703125</v>
-      </c>
-      <c r="G25" s="5">
+        <v>6508.703125</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="1"/>
-        <v>6607.703125</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="2"/>
-        <v>6508.703125</v>
-      </c>
-      <c r="J25" s="5">
-        <f t="shared" si="3"/>
         <v>6595.369791666667</v>
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
@@ -8435,24 +7807,24 @@
         <v>7716.19921875</v>
       </c>
       <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>42318.19921875</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="3"/>
+        <v>42683.19921875</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="0"/>
-        <v>42318.19921875</v>
-      </c>
-      <c r="G26" s="5">
+        <v>42891.19921875</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="1"/>
-        <v>42683.19921875</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="2"/>
-        <v>42891.19921875</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="3"/>
         <v>42630.865885416664</v>
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
         <v>71</v>
       </c>
@@ -8466,24 +7838,24 @@
         <v>6790.1015625</v>
       </c>
       <c r="F27" s="5">
+        <f t="shared" si="2"/>
+        <v>42529.3984375</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="3"/>
+        <v>43259.3984375</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>42529.3984375</v>
-      </c>
-      <c r="G27" s="5">
+        <v>43774.3984375</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="1"/>
-        <v>43259.3984375</v>
-      </c>
-      <c r="H27" s="5">
-        <f t="shared" si="2"/>
-        <v>43774.3984375</v>
-      </c>
-      <c r="J27" s="5">
-        <f t="shared" si="3"/>
         <v>43187.731770833336</v>
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
         <v>72</v>
       </c>
@@ -8497,23 +7869,23 @@
         <v>1759.6015625</v>
       </c>
       <c r="F28" s="5">
+        <f t="shared" si="2"/>
+        <v>7510.296875</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="3"/>
+        <v>7434.296875</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>7510.296875</v>
-      </c>
-      <c r="G28" s="5">
+        <v>7377.296875</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="1"/>
-        <v>7434.296875</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="2"/>
-        <v>7377.296875</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="3"/>
         <v>7440.630208333333</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
@@ -8527,23 +7899,23 @@
         <v>2636</v>
       </c>
       <c r="F29" s="5">
+        <f t="shared" si="2"/>
+        <v>6422.80078125</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="3"/>
+        <v>6350.80078125</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>6422.80078125</v>
-      </c>
-      <c r="G29" s="5">
+        <v>6310.80078125</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="1"/>
-        <v>6350.80078125</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="2"/>
-        <v>6310.80078125</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="3"/>
         <v>6361.467447916667</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
         <v>82</v>
       </c>
@@ -8557,23 +7929,23 @@
         <v>14195.8984375</v>
       </c>
       <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>96276.1015625</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="3"/>
+        <v>98998.1015625</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>96276.1015625</v>
-      </c>
-      <c r="G30" s="5">
+        <v>101029.1015625</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="1"/>
-        <v>98998.1015625</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="2"/>
-        <v>101029.1015625</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="3"/>
         <v>98767.768229166672</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
         <v>83</v>
       </c>
@@ -8587,23 +7959,23 @@
         <v>12175.19921875</v>
       </c>
       <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>86305.09765625</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="3"/>
+        <v>88197.09765625</v>
+      </c>
+      <c r="H31" s="5">
         <f t="shared" si="0"/>
-        <v>86305.09765625</v>
-      </c>
-      <c r="G31" s="5">
+        <v>90256.09765625</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="1"/>
-        <v>88197.09765625</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="2"/>
-        <v>90256.09765625</v>
-      </c>
-      <c r="J31" s="5">
-        <f t="shared" si="3"/>
         <v>88252.764322916672</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
         <v>84</v>
       </c>
@@ -8617,23 +7989,23 @@
         <v>2740.8984375</v>
       </c>
       <c r="F32" s="5">
+        <f t="shared" si="2"/>
+        <v>11602.6015625</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="3"/>
+        <v>11494.6015625</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="0"/>
-        <v>11602.6015625</v>
-      </c>
-      <c r="G32" s="5">
+        <v>11409.6015625</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="1"/>
-        <v>11494.6015625</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="2"/>
-        <v>11409.6015625</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="3"/>
         <v>11502.268229166666</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
@@ -8647,23 +8019,23 @@
         <v>4764.6015625</v>
       </c>
       <c r="F33" s="5">
+        <f t="shared" si="2"/>
+        <v>33121.59765625</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="3"/>
+        <v>32989.59765625</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>33121.59765625</v>
-      </c>
-      <c r="G33" s="5">
+        <v>32879.59765625</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="1"/>
-        <v>32989.59765625</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="2"/>
-        <v>32879.59765625</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" si="3"/>
         <v>32996.930989583336</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -8677,7 +8049,7 @@
         <v>240.8984375</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -8691,7 +8063,7 @@
         <v>-90.30078125</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -8705,7 +8077,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -8719,7 +8091,7 @@
         <v>1348.69921875</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -8733,7 +8105,7 @@
         <v>993.30078125</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -8747,7 +8119,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -8761,7 +8133,7 @@
         <v>3356.30078125</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -8775,7 +8147,7 @@
         <v>1928.6015625</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
@@ -8789,7 +8161,7 @@
         <v>911.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -8803,7 +8175,7 @@
         <v>1260.8984375</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -8817,7 +8189,7 @@
         <v>4948.6015625</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
         <v>25</v>
       </c>
@@ -8831,7 +8203,7 @@
         <v>1059.6015625</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>34</v>
       </c>
@@ -8845,7 +8217,7 @@
         <v>1167.80078125</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>35</v>
       </c>
@@ -8859,7 +8231,7 @@
         <v>1911.30078125</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>36</v>
       </c>
@@ -8873,7 +8245,7 @@
         <v>4185.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>37</v>
       </c>
@@ -8887,7 +8259,7 @@
         <v>1703.30078125</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>46</v>
       </c>
@@ -8901,7 +8273,7 @@
         <v>2054.19921875</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>47</v>
       </c>
@@ -8915,7 +8287,7 @@
         <v>2607.6015625</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>48</v>
       </c>
@@ -8929,7 +8301,7 @@
         <v>3732.69921875</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
@@ -8943,7 +8315,7 @@
         <v>2053.1015625</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -8957,7 +8329,7 @@
         <v>3944.80078125</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -8971,7 +8343,7 @@
         <v>4232.5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -8985,7 +8357,7 @@
         <v>1112.8984375</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -8999,7 +8371,7 @@
         <v>1601.3984375</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>70</v>
       </c>
@@ -9013,7 +8385,7 @@
         <v>7694.19921875</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>71</v>
       </c>
@@ -9027,7 +8399,7 @@
         <v>6878.1015625</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>72</v>
       </c>
@@ -9041,7 +8413,7 @@
         <v>1729.6015625</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -9055,7 +8427,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>82</v>
       </c>
@@ -9069,7 +8441,7 @@
         <v>14500.8984375</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>83</v>
       </c>
@@ -9083,7 +8455,7 @@
         <v>12377.19921875</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>84</v>
       </c>
@@ -9097,7 +8469,7 @@
         <v>2695.8984375</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>85</v>
       </c>
@@ -9111,7 +8483,7 @@
         <v>4729.6015625</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -9125,7 +8497,7 @@
         <v>227.8984375</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -9139,7 +8511,7 @@
         <v>-101.30078125</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -9153,7 +8525,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -9167,7 +8539,7 @@
         <v>1326.69921875</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -9181,7 +8553,7 @@
         <v>951.30078125</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -9195,7 +8567,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -9209,7 +8581,7 @@
         <v>3274.30078125</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -9223,7 +8595,7 @@
         <v>1914.6015625</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
         <v>22</v>
       </c>
@@ -9237,7 +8609,7 @@
         <v>911.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
         <v>23</v>
       </c>
@@ -9251,7 +8623,7 @@
         <v>1225.8984375</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
         <v>24</v>
       </c>
@@ -9265,7 +8637,7 @@
         <v>4952.6015625</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
         <v>25</v>
       </c>
@@ -9279,7 +8651,7 @@
         <v>1029.6015625</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
         <v>34</v>
       </c>
@@ -9293,7 +8665,7 @@
         <v>1170.80078125</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
         <v>35</v>
       </c>
@@ -9307,7 +8679,7 @@
         <v>1878.30078125</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
@@ -9321,7 +8693,7 @@
         <v>4185.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -9335,7 +8707,7 @@
         <v>1673.30078125</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>46</v>
       </c>
@@ -9349,7 +8721,7 @@
         <v>2032.19921875</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>47</v>
       </c>
@@ -9363,7 +8735,7 @@
         <v>2568.6015625</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>48</v>
       </c>
@@ -9377,7 +8749,7 @@
         <v>3717.69921875</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>49</v>
       </c>
@@ -9391,7 +8763,7 @@
         <v>2100.1015625</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>58</v>
       </c>
@@ -9405,7 +8777,7 @@
         <v>3872.80078125</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>59</v>
       </c>
@@ -9419,7 +8791,7 @@
         <v>4257.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -9433,7 +8805,7 @@
         <v>1058.8984375</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5">
       <c r="A89" s="7" t="s">
         <v>61</v>
       </c>
@@ -9448,7 +8820,7 @@
       </c>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>70</v>
       </c>
@@ -9462,7 +8834,7 @@
         <v>7652.19921875</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>71</v>
       </c>
@@ -9476,7 +8848,7 @@
         <v>6920.1015625</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
         <v>72</v>
       </c>
@@ -9490,7 +8862,7 @@
         <v>1689.6015625</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
         <v>73</v>
       </c>
@@ -9504,7 +8876,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>82</v>
       </c>
@@ -9518,7 +8890,7 @@
         <v>14671.8984375</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>83</v>
       </c>
@@ -9532,7 +8904,7 @@
         <v>12632.19921875</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
         <v>84</v>
       </c>
@@ -9546,7 +8918,7 @@
         <v>2675.8984375</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
         <v>85</v>
       </c>
@@ -9563,6 +8935,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Datos crudos_Procesamiento.xlsx
+++ b/Datos crudos_Procesamiento.xlsx
@@ -11,12 +11,11 @@
     <sheet name="Procesamiento" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="115">
   <si>
     <t>Well</t>
   </si>
@@ -358,13 +357,16 @@
   </si>
   <si>
     <t>Concentración estándar</t>
+  </si>
+  <si>
+    <t>los well 1 son la medicion por ruido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -394,6 +396,12 @@
       <sz val="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -428,6 +436,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,9 +504,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11438202012827868"/>
-          <c:y val="0.14148849182313755"/>
+          <c:y val="0.14148849182313761"/>
           <c:w val="0.82561745406824161"/>
-          <c:h val="0.78194444444444455"/>
+          <c:h val="0.78194444444444466"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -613,22 +625,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>886.96354166666674</c:v>
+                  <c:v>886.96354166666993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3062.865885416667</c:v>
+                  <c:v>3062.8658854166697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5671.662760416667</c:v>
+                  <c:v>5671.6627604166697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11389.065104166666</c:v>
+                  <c:v>11389.06510416667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23843.731770833336</c:v>
+                  <c:v>23843.731770833339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44457.930989583328</c:v>
+                  <c:v>44457.930989583336</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100594.83333333334</c:v>
@@ -642,12 +654,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="119266304"/>
-        <c:axId val="127017728"/>
+        <c:axId val="130968576"/>
+        <c:axId val="130999040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119266304"/>
+        <c:axId val="130968576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,12 +713,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127017728"/>
+        <c:crossAx val="130999040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127017728"/>
+        <c:axId val="130999040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +773,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119266304"/>
+        <c:crossAx val="130968576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -811,7 +822,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -837,7 +848,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C96EEF7-930E-4918-988A-4DC37D38A916}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C96EEF7-930E-4918-988A-4DC37D38A916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6700,7 +6711,7 @@
   <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6772,6 +6783,9 @@
         <f t="shared" ref="J2:J33" si="1">AVERAGE(F2:H2)</f>
         <v>-1827.0651041666667</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="L2" s="4" t="s">
         <v>105</v>
       </c>
@@ -6779,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="5">
-        <v>-1827.0651041666667</v>
+        <v>-1827.0651041666699</v>
       </c>
       <c r="O2" s="5">
         <v>-2205.59765625</v>
@@ -6805,11 +6819,11 @@
         <v>-40.30078125</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F2:F33" si="2">C3-D3</f>
+        <f t="shared" ref="F3:F33" si="2">C3-D3</f>
         <v>-2157.59765625</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G2:G33" si="3">C35-D35</f>
+        <f t="shared" ref="G3:G33" si="3">C35-D35</f>
         <v>-2211.59765625</v>
       </c>
       <c r="H3" s="5">
@@ -6964,6 +6978,9 @@
         <f t="shared" si="1"/>
         <v>-940.1015625</v>
       </c>
+      <c r="K6" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="L6" s="4" t="s">
         <v>109</v>
       </c>
@@ -7156,9 +7173,12 @@
         <f t="shared" si="1"/>
         <v>1235.80078125</v>
       </c>
+      <c r="K10" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="N10">
         <f>MIN(N2:N9)</f>
-        <v>-1827.0651041666667</v>
+        <v>-1827.0651041666699</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -7206,11 +7226,11 @@
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
-        <v>20780.565104166668</v>
+        <v>20780.565104166672</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>7909.6341145833339</v>
+        <v>7909.6341145833367</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -7250,19 +7270,19 @@
       </c>
       <c r="N12">
         <f t="shared" ref="N12:Q18" si="5">MAX(0,N3-$N$10)</f>
-        <v>886.96354166666674</v>
+        <v>886.96354166666993</v>
       </c>
       <c r="O12">
         <f t="shared" si="5"/>
-        <v>836.29687500000011</v>
+        <v>836.2968750000033</v>
       </c>
       <c r="P12">
         <f t="shared" si="5"/>
-        <v>21399.09765625</v>
+        <v>21399.097656250004</v>
       </c>
       <c r="Q12">
         <f t="shared" si="5"/>
-        <v>7871.162760416667</v>
+        <v>7871.1627604166697</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -7302,19 +7322,19 @@
       </c>
       <c r="N13">
         <f t="shared" si="5"/>
-        <v>3062.865885416667</v>
+        <v>3062.8658854166697</v>
       </c>
       <c r="O13">
         <f t="shared" si="5"/>
-        <v>3489.3333333333335</v>
+        <v>3489.3333333333367</v>
       </c>
       <c r="P13">
         <f t="shared" si="5"/>
-        <v>31015.963541666668</v>
+        <v>31015.963541666672</v>
       </c>
       <c r="Q13">
         <f t="shared" si="5"/>
-        <v>4938.528645833333</v>
+        <v>4938.5286458333367</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -7354,19 +7374,19 @@
       </c>
       <c r="N14">
         <f t="shared" si="5"/>
-        <v>5671.662760416667</v>
+        <v>5671.6627604166697</v>
       </c>
       <c r="O14">
         <f t="shared" si="5"/>
-        <v>6549.69921875</v>
+        <v>6549.6992187500027</v>
       </c>
       <c r="P14">
         <f t="shared" si="5"/>
-        <v>23580.333333333336</v>
+        <v>23580.333333333339</v>
       </c>
       <c r="Q14">
         <f t="shared" si="5"/>
-        <v>9223.8294270833339</v>
+        <v>9223.8294270833376</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -7406,19 +7426,19 @@
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>11389.065104166666</v>
+        <v>11389.06510416667</v>
       </c>
       <c r="O15">
         <f t="shared" si="5"/>
-        <v>13118.130208333332</v>
+        <v>13118.130208333336</v>
       </c>
       <c r="P15">
         <f t="shared" si="5"/>
-        <v>21260</v>
+        <v>21260.000000000004</v>
       </c>
       <c r="Q15">
         <f t="shared" si="5"/>
-        <v>11815.731770833332</v>
+        <v>11815.731770833336</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -7458,19 +7478,19 @@
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
-        <v>23843.731770833336</v>
+        <v>23843.731770833339</v>
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
-        <v>25422.09765625</v>
+        <v>25422.097656250004</v>
       </c>
       <c r="P16">
         <f t="shared" si="5"/>
-        <v>5659.666666666667</v>
+        <v>5659.6666666666697</v>
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>8422.4348958333339</v>
+        <v>8422.4348958333376</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -7510,19 +7530,19 @@
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>44457.930989583328</v>
+        <v>44457.930989583336</v>
       </c>
       <c r="O17">
         <f t="shared" si="5"/>
-        <v>45014.796875</v>
+        <v>45014.796875000007</v>
       </c>
       <c r="P17">
         <f t="shared" si="5"/>
-        <v>9267.6953125</v>
+        <v>9267.6953125000036</v>
       </c>
       <c r="Q17">
         <f t="shared" si="5"/>
-        <v>8188.5325520833339</v>
+        <v>8188.5325520833367</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -7570,11 +7590,11 @@
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
-        <v>13329.333333333332</v>
+        <v>13329.333333333336</v>
       </c>
       <c r="Q18">
         <f t="shared" si="5"/>
-        <v>34823.99609375</v>
+        <v>34823.996093750007</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -8005,7 +8025,7 @@
         <v>11502.268229166666</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:14">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
@@ -8035,7 +8055,7 @@
         <v>32996.930989583336</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -8049,7 +8069,7 @@
         <v>240.8984375</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -8063,7 +8083,7 @@
         <v>-90.30078125</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -8077,7 +8097,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:14">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -8090,8 +8110,18 @@
       <c r="D37" s="3">
         <v>1348.69921875</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="G37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -8104,8 +8134,16 @@
       <c r="D38" s="3">
         <v>993.30078125</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -8118,8 +8156,16 @@
       <c r="D39" s="3">
         <v>926</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -8132,8 +8178,16 @@
       <c r="D40" s="3">
         <v>3356.30078125</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -8147,7 +8201,7 @@
         <v>1928.6015625</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:14">
       <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
@@ -8161,7 +8215,7 @@
         <v>911.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:14">
       <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
@@ -8175,7 +8229,7 @@
         <v>1260.8984375</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:14">
       <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
@@ -8189,7 +8243,7 @@
         <v>4948.6015625</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:14">
       <c r="A45" s="2" t="s">
         <v>25</v>
       </c>
@@ -8203,7 +8257,7 @@
         <v>1059.6015625</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:14">
       <c r="A46" s="2" t="s">
         <v>34</v>
       </c>
@@ -8217,7 +8271,7 @@
         <v>1167.80078125</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
         <v>35</v>
       </c>
@@ -8231,7 +8285,7 @@
         <v>1911.30078125</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:14">
       <c r="A48" s="2" t="s">
         <v>36</v>
       </c>
@@ -8933,7 +8987,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G37:N40"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Datos crudos_Procesamiento.xlsx
+++ b/Datos crudos_Procesamiento.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -402,6 +402,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -423,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -441,6 +447,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,9 +511,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11438202012827868"/>
-          <c:y val="0.14148849182313761"/>
+          <c:y val="0.14148849182313766"/>
           <c:w val="0.82561745406824161"/>
-          <c:h val="0.78194444444444466"/>
+          <c:h val="0.78194444444444478"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -654,11 +661,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="130968576"/>
-        <c:axId val="130999040"/>
+        <c:axId val="101153408"/>
+        <c:axId val="101175680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130968576"/>
+        <c:axId val="101153408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,12 +720,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130999040"/>
+        <c:crossAx val="101175680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130999040"/>
+        <c:axId val="101175680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +780,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130968576"/>
+        <c:crossAx val="101153408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -822,7 +829,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -832,23 +839,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>472174</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>124284</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281674</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>929374</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>86183</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>738874</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>18948</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C96EEF7-930E-4918-988A-4DC37D38A916}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C96EEF7-930E-4918-988A-4DC37D38A916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6708,15 +6715,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6754,7 +6761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -6805,7 +6812,7 @@
         <v>6082.569010416667</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6853,7 +6860,7 @@
         <v>6044.09765625</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6901,7 +6908,7 @@
         <v>3111.4635416666665</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -6949,7 +6956,7 @@
         <v>7396.764322916667</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -7000,7 +7007,7 @@
         <v>9988.6666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -7048,7 +7055,7 @@
         <v>6595.369791666667</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -7096,7 +7103,7 @@
         <v>6361.467447916667</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -7144,7 +7151,7 @@
         <v>32996.930989583336</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -7181,7 +7188,7 @@
         <v>-1827.0651041666699</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -7232,8 +7239,9 @@
         <f t="shared" si="4"/>
         <v>7909.6341145833367</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -7285,7 +7293,7 @@
         <v>7871.1627604166697</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -7337,7 +7345,7 @@
         <v>4938.5286458333367</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -7388,8 +7396,9 @@
         <f t="shared" si="5"/>
         <v>9223.8294270833376</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -7441,7 +7450,7 @@
         <v>11815.731770833336</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
